--- a/formshare/tests/resources/forms/external/select_one_external.xlsx
+++ b/formshare/tests/resources/forms/external/select_one_external.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="49">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -161,6 +161,9 @@
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
   </si>
   <si>
     <t xml:space="preserve">cascading select test</t>
@@ -359,11 +362,11 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.30859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.43"/>
@@ -373,7 +376,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="7.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="28.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="23.71"/>
@@ -734,8 +737,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -756,7 +759,7 @@
       <selection pane="bottomLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.30859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
@@ -1086,8 +1089,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1106,7 +1109,7 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.30859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.71"/>
@@ -1391,8 +1394,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1407,11 +1410,11 @@
   </sheetPr>
   <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.30859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="17.328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.63"/>
@@ -1427,7 +1430,9 @@
       <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -1440,12 +1445,14 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -1710,8 +1717,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
